--- a/TestResources/ApplicationMap/AMap.xlsx
+++ b/TestResources/ApplicationMap/AMap.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumTestNg\Framework\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumTestNg\Framework\TestResources\ApplicationMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" tabRatio="782" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" tabRatio="782" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="SearchTransaction" sheetId="7" r:id="rId4"/>
     <sheet name="RegisterMember" sheetId="8" r:id="rId5"/>
     <sheet name="MemberPayment" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="191">
   <si>
     <t>Element_Name</t>
   </si>
@@ -596,6 +597,12 @@
   </si>
   <si>
     <t>html/body/div[2]/div/div/div/div[3]/table[1]/tbody/tr[2]/td/table/tbody/tr/td[2]</t>
+  </si>
+  <si>
+    <t>.//*[@id='newMemberGroup']</t>
+  </si>
+  <si>
+    <t>LST_CreateMember</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1641,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,6 +1951,17 @@
       </c>
       <c r="E22" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2246,4 +2264,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestResources/ApplicationMap/AMap.xlsx
+++ b/TestResources/ApplicationMap/AMap.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" tabRatio="782" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" tabRatio="782" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/TestResources/ApplicationMap/AMap.xlsx
+++ b/TestResources/ApplicationMap/AMap.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" tabRatio="782" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" tabRatio="782" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
     <sheet name="HomePage" sheetId="4" r:id="rId2"/>
     <sheet name="AccountOverview" sheetId="6" r:id="rId3"/>
-    <sheet name="SearchTransaction" sheetId="7" r:id="rId4"/>
-    <sheet name="RegisterMember" sheetId="8" r:id="rId5"/>
-    <sheet name="MemberPayment" sheetId="9" r:id="rId6"/>
+    <sheet name="SystemAccounts" sheetId="10" r:id="rId4"/>
+    <sheet name="SearchTransaction" sheetId="7" r:id="rId5"/>
+    <sheet name="RegisterMember" sheetId="8" r:id="rId6"/>
+    <sheet name="MemberPayment" sheetId="9" r:id="rId7"/>
+    <sheet name="PaymentSystemToMember" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="209">
   <si>
     <t>Element_Name</t>
   </si>
@@ -541,9 +543,6 @@
     <t>ELM_AccountPane</t>
   </si>
   <si>
-    <t>html/body/div[2]/div/div/div/div[3]/table/tbody/tr[1]/td[1]</t>
-  </si>
-  <si>
     <t>//*[@id="tdContents"]/form/table[1]/tbody/tr[2]/td/table/tbody/tr[2]/td[2]</t>
   </si>
   <si>
@@ -602,6 +601,63 @@
   </si>
   <si>
     <t>LST_CreateMember</t>
+  </si>
+  <si>
+    <t>TBL_SYSTEM_ACCOUNTS</t>
+  </si>
+  <si>
+    <t>LST_TransactionType</t>
+  </si>
+  <si>
+    <t>memberUsername</t>
+  </si>
+  <si>
+    <t>memberName</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>//*[@id="typeCell"]/input[2]</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>submitButton</t>
+  </si>
+  <si>
+    <t>TBL_TRANSACTION_CONFIRMATION</t>
+  </si>
+  <si>
+    <t>//*[@id="tdContents"]/form/table[1]/tbody/tr[2]/td/table</t>
+  </si>
+  <si>
+    <t>BTN_confirm_submit</t>
+  </si>
+  <si>
+    <t>ELE_success_header</t>
+  </si>
+  <si>
+    <t>//*[@id="tdContents"]/table/tbody/tr[1]/td[1]</t>
+  </si>
+  <si>
+    <t>//*[@id="tdContents"]/table/tbody/tr[2]/td/table</t>
+  </si>
+  <si>
+    <t>//*[@id="type"]</t>
+  </si>
+  <si>
+    <t>SUG_Login_Name</t>
+  </si>
+  <si>
+    <t>membersByUsername</t>
+  </si>
+  <si>
+    <t>DIS_TXB_TransactionType</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1074,7 +1130,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,40 +1218,40 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>187</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1204,6 +1260,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -1645,12 +1751,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,13 +2060,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1968,12 +2074,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,46 +2296,46 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2240,27 +2346,188 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
         <v>180</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
         <v>181</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>